--- a/material/translation/TermDefinitions/Jurisdiction.xlsx
+++ b/material/translation/TermDefinitions/Jurisdiction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu.sharepoint.com/sites/--/Shared Documents/DE4A/WP3/XSDs/Ana Rosa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu.sharepoint.com/sites/--/Shared Documents/DE4A/WP3/XSDs/Ana Rosa/Birth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="11_CD56FEBEDA2BA8BF44DB35C98A7A41E4784DAEAD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9EC8352-2216-49A3-B24D-BA652C962443}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="11_CD56FEBEDA2BA8BF44DB35C98A7A41E4784DAEAD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FC6C91F-62C5-47FD-A26B-B678C308F670}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fr" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="en" sheetId="2" r:id="rId5"/>
     <sheet name="Terms" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>Term</t>
   </si>
@@ -53,62 +53,74 @@
     <t>Verified</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The value for the id property is a URI for that Jurisdiction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>The name is simply a string that identifies the Jurisdiction, typically a country, with or without a language tag.</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
     <t>Term URI</t>
   </si>
   <si>
     <t>Origin</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Optional</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>the type of identifier issued (if the authority issues more than one type of identifier).</t>
-  </si>
-  <si>
-    <t>Content - alpha-numeric string</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
     <t>Jurisdiction/Identifier</t>
   </si>
   <si>
+    <t>00</t>
+  </si>
+  <si>
     <t>Jurisdiction/Name</t>
   </si>
   <si>
     <t>CountryEnum</t>
   </si>
   <si>
-    <t>00</t>
-  </si>
-  <si>
     <t>11</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,12 +143,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,9 +488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -507,7 +522,7 @@
         <v>Jurisdiction</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -516,7 +531,7 @@
         <v>Jurisdiction/Identifier</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -525,16 +540,7 @@
         <v>Jurisdiction/Name</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>Terms!A5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -544,9 +550,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -576,7 +584,7 @@
         <v>Jurisdiction</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -585,7 +593,7 @@
         <v>Jurisdiction/Identifier</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -594,16 +602,7 @@
         <v>Jurisdiction/Name</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>Terms!A5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -613,10 +612,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +646,7 @@
         <v>Jurisdiction</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -656,7 +655,7 @@
         <v>Jurisdiction/Identifier</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -665,16 +664,7 @@
         <v>Jurisdiction/Name</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>Terms!A5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -684,9 +674,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -719,7 +711,7 @@
         <v>Jurisdiction</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -728,7 +720,7 @@
         <v>Jurisdiction/Identifier</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -737,16 +729,7 @@
         <v>Jurisdiction/Name</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>Terms!A5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -756,9 +739,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -791,7 +776,10 @@
         <v>Jurisdiction</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -800,10 +788,16 @@
         <v>Jurisdiction/Identifier</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -812,16 +806,16 @@
         <v>Jurisdiction/Name</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>Terms!A5</f>
-        <v>0</v>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -844,43 +840,43 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1129,22 +1125,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FD51D8-5A43-457B-8F0A-FAD11D35BC87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="387b4333-7bd0-482a-b673-9a586eb2ceee"/>
-    <ds:schemaRef ds:uri="4aa09831-7f3d-42ba-9b8c-49994d1626d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA818A0A-6FFF-489C-A33A-98E0FD615F76}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
